--- a/Example_Data/Rebeccas_Excels/Reb_DailyPrecip_Calgaryxlsx.xlsx
+++ b/Example_Data/Rebeccas_Excels/Reb_DailyPrecip_Calgaryxlsx.xlsx
@@ -1,26 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b4073d49f580b59d/OneDocs/GitHub/C--Hacks2019/Example_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arebe\OneDrive\OneDocs\GitHub\C--Hacks2019\Example_Data\Rebeccas_Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A9C2956-2738-4A3C-9129-7976A05DC72D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{1A9C2956-2738-4A3C-9129-7976A05DC72D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{11A9CC63-6F1C-44AE-AB28-A25158AAB96F}"/>
   <bookViews>
-    <workbookView xWindow="15795" yWindow="1590" windowWidth="10185" windowHeight="11385"/>
+    <workbookView xWindow="4080" yWindow="3120" windowWidth="10185" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="eng-daily-01012019-12312019_dai" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="73">
   <si>
     <t>Station Name</t>
   </si>
@@ -222,11 +230,29 @@
   <si>
     <t>Spd of Max Gust Flag</t>
   </si>
+  <si>
+    <t xml:space="preserve">Standard dev </t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>MAD</t>
+  </si>
+  <si>
+    <t>Quartile</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1061,10 +1087,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA391"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AG391"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="AF44" sqref="AF44"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1185,7 +1213,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1193,7 +1221,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -1201,7 +1229,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -1209,7 +1237,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -1217,7 +1245,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -1225,7 +1253,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -1233,7 +1261,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -1241,7 +1269,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -1249,7 +1277,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -1332,7 +1360,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43466</v>
       </c>
@@ -1379,7 +1407,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43467</v>
       </c>
@@ -1426,7 +1454,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43468</v>
       </c>
@@ -1475,8 +1503,17 @@
       <c r="Z29">
         <v>65</v>
       </c>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AD29" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43469</v>
       </c>
@@ -1526,7 +1563,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43470</v>
       </c>
@@ -1575,8 +1612,20 @@
       <c r="AA31" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AD31">
+        <f>_xlfn.STDEV.S(T:T)</f>
+        <v>0.92463858979556457</v>
+      </c>
+      <c r="AF31">
+        <f>MAX(T:T)</f>
+        <v>3</v>
+      </c>
+      <c r="AG31">
+        <f>MIN(T:T)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43471</v>
       </c>
@@ -1626,7 +1675,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43472</v>
       </c>
@@ -1682,7 +1731,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43473</v>
       </c>
@@ -1732,7 +1781,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43474</v>
       </c>
@@ -1781,8 +1830,11 @@
       <c r="AA35" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AF35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43475</v>
       </c>
@@ -1825,8 +1877,12 @@
       <c r="Z36">
         <v>41</v>
       </c>
-    </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AF36">
+        <f>AVERAGE(T:T)</f>
+        <v>0.55652173913043468</v>
+      </c>
+    </row>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43476</v>
       </c>
@@ -1876,7 +1932,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43477</v>
       </c>
@@ -1926,7 +1982,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43478</v>
       </c>
@@ -1972,8 +2028,11 @@
       <c r="AA39" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AF39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43479</v>
       </c>
@@ -2022,8 +2081,12 @@
       <c r="Z40">
         <v>45</v>
       </c>
-    </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AF40" t="e">
+        <f ca="1">mad(F:AB)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43480</v>
       </c>
@@ -2076,7 +2139,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43481</v>
       </c>
@@ -2125,8 +2188,11 @@
       <c r="AA42" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AF42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43482</v>
       </c>
@@ -2172,8 +2238,12 @@
       <c r="AA43" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AF43">
+        <f>_xlfn.QUARTILE.EXC(T:T,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43483</v>
       </c>
@@ -2226,7 +2296,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43484</v>
       </c>
@@ -2276,7 +2346,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43485</v>
       </c>
@@ -2323,7 +2393,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43486</v>
       </c>
@@ -2370,7 +2440,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43487</v>
       </c>
